--- a/energy__n30.xlsx
+++ b/energy__n30.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -518,6 +518,1526 @@
         <v>86.00439990952258</v>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>86.00182566400539</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>86.00110139691429</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>86.00096332237398</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>86.00095704637451</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>86.00095691876263</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>86.00095691642983</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>86.0009569163855</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>86.00095691638481</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>86.00095691638406</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>86.00095691638275</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>86.00095691638488</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>86.00095691638488</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>86.00095691638488</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>86.00095691638488</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>86.00095691638488</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>86.00095691638488</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>86.00095691638488</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>86.00095691638488</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>86.00095691638488</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>86.00095691638488</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>86.00095691638488</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>86.00095691638488</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>86.00095691638488</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>86.00095691638488</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>86.00095691638488</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>86.00095691638488</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>86.00095691638488</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>86.00095691638488</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>86.00095691638488</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>86.00095691638488</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>86.00095691638488</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>86.00095691638488</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>86.00095691638488</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>86.00095691638488</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>86.00095691638488</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>86.00095691638488</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>86.00095691638488</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>86.00095691638488</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>86.00095691638488</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>86.00095691638488</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
+        <v>86.00095691638488</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="n">
+        <v>86.00095691638488</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="n">
+        <v>86.00095691638488</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="n">
+        <v>86.00095691638488</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="n">
+        <v>86.00095691638488</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="n">
+        <v>86.00095691638488</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="n">
+        <v>86.00095691638488</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="n">
+        <v>86.00095691638488</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="n">
+        <v>86.00095691638488</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="n">
+        <v>86.00095691638488</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="n">
+        <v>86.00095691638488</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="n">
+        <v>86.00095691638488</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="n">
+        <v>86.00095691638488</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="n">
+        <v>86.00095691638488</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="n">
+        <v>86.00095691638488</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="n">
+        <v>86.00095691638488</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="n">
+        <v>86.00095691638488</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="n">
+        <v>86.00095691638488</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="n">
+        <v>86.00095691638488</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="n">
+        <v>86.00095691638488</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="n">
+        <v>86.00095691638488</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="n">
+        <v>86.00095691638488</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="n">
+        <v>86.00095691638488</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="n">
+        <v>86.00095691638488</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="n">
+        <v>86.00095691638488</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="n">
+        <v>86.00095691638488</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="n">
+        <v>86.00095691638488</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="n">
+        <v>86.00095691638488</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="n">
+        <v>86.00095691638488</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="n">
+        <v>86.00095691638488</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="n">
+        <v>86.00095691638488</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="n">
+        <v>86.00095691638488</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="n">
+        <v>86.00095691638488</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="n">
+        <v>86.00095691638488</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="n">
+        <v>86.00095691638488</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="n">
+        <v>86.00095691638488</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="n">
+        <v>86.00095691638488</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="n">
+        <v>86.00095691638488</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
+        <v>86.00095691638488</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="n">
+        <v>86.00095691638488</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
+        <v>86.00095691638488</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
+        <v>86.00095691638488</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
+        <v>86.00095691638488</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="n">
+        <v>86.00095691638488</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="n">
+        <v>86.00095691638488</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="n">
+        <v>86.00095691638488</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="n">
+        <v>86.00095691638488</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="n">
+        <v>86.00095691638488</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="n">
+        <v>86.00095691638488</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="n">
+        <v>86.00095691638488</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="n">
+        <v>86.00095691638488</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="n">
+        <v>86.00095691638488</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="n">
+        <v>86.00095691638488</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="n">
+        <v>86.00095691638488</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="n">
+        <v>86.00095691638488</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>86.00095691638488</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>86.00095691638488</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>86.00095691638488</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>86.00095691638488</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>86.00095691638488</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>86.00095691638488</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>86.00095691638488</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>86.00095691638488</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>86.00095691638488</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>86.00095691638488</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>86.00095691638488</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>86.00095691638488</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>86.00095691638488</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>86.00095691638488</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>86.00095691638488</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>86.00095691638488</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>86.00095691638488</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>86.00095691638488</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>86.00095691638488</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>86.00095691638488</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>86.00095691638488</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>86.00095691638488</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>86.00095691638488</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>86.00095691638488</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>86.00095691638488</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>86.00095691638488</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>86.00095691638488</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>86.00095691638488</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>86.00095691638488</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>86.00095691638488</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>86.00095691638488</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>86.00095691638488</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>86.00095691638488</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>86.00095691638488</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>86.00095691638488</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>86.00095691638488</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>86.00095691638488</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>86.00095691638488</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>86.00095691638488</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>86.00095691638488</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>86.00095691638488</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>86.00095691638488</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>86.00095691638488</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>86.00095691638488</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>86.00095691638488</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>86.00095691638488</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>86.00095691638488</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>86.00095691638488</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>86.00095691638488</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>86.00095691638488</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>86.00095691638488</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>86.00095691638488</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>86.00095691638488</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>86.00095691638488</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>86.00095691638488</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>86.00095691638488</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>86.00095691638488</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>86.00095691638488</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>86.00095691638488</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>86.00095691638488</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>86.00095691638488</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>86.00095691638488</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>86.00095691638488</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>86.00095691638488</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>86.00095691638488</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>86.00095691638488</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>86.00095691638488</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>86.00095691638488</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>86.00095691638488</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>86.00095691638488</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>86.00095691638488</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>86.00095691638488</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>86.00095691638488</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>86.00095691638488</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>86.00095691638488</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>86.00095691638488</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>86.00095691638488</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>86.00095691638488</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>86.00095691638488</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>86.00095691638488</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>86.00095691638488</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>86.00095691638488</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>86.00095691638488</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>86.00095691638488</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>86.00095691638488</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>86.00095691638488</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>86.00095691638488</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>86.00095691638488</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>86.00095691638488</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>86.00095691638488</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>86.00095691638488</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>86.00095691638488</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>86.00095691638488</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>86.00095691638488</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>86.00095691638488</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
